--- a/data/trans_orig/P57_AC_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>419500</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>395711</v>
+        <v>397010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>440152</v>
+        <v>439729</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7181485869627187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.677423484583859</v>
+        <v>0.6796479272645016</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7535033558247609</v>
+        <v>0.7527795346464888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>588</v>
@@ -765,19 +765,19 @@
         <v>621419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>592217</v>
+        <v>593427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>648669</v>
+        <v>650525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6753070204725767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6435731625463152</v>
+        <v>0.6448876779621016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7049205021369952</v>
+        <v>0.7069367728395899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1000</v>
@@ -786,19 +786,19 @@
         <v>1040920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1004915</v>
+        <v>1008486</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1077299</v>
+        <v>1075675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6919425370628153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6680087994504595</v>
+        <v>0.6703828787198556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7161256820538102</v>
+        <v>0.7150461005556523</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>164641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143989</v>
+        <v>144412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188430</v>
+        <v>187131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2818514130372813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2464966441752388</v>
+        <v>0.2472204653535111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3225765154161409</v>
+        <v>0.3203520727354984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -836,19 +836,19 @@
         <v>298783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271533</v>
+        <v>269677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327985</v>
+        <v>326775</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3246929795274233</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2950794978630048</v>
+        <v>0.2930632271604101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3564268374536848</v>
+        <v>0.3551123220378984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>457</v>
@@ -857,19 +857,19 @@
         <v>463424</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>427045</v>
+        <v>428669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499429</v>
+        <v>495858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3080574629371848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2838743179461897</v>
+        <v>0.2849538994443476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3319912005495402</v>
+        <v>0.3296171212801441</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>721417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>687052</v>
+        <v>686840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>750680</v>
+        <v>752168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6699578623132797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6380443222148573</v>
+        <v>0.6378477764742203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6971341097395358</v>
+        <v>0.6985158170012549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>737</v>
@@ -982,19 +982,19 @@
         <v>761624</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>731616</v>
+        <v>731057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>789833</v>
+        <v>788610</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7201862472709037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6918106993720744</v>
+        <v>0.6912816833252853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7468598146999723</v>
+        <v>0.7457035353723188</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1445</v>
@@ -1003,19 +1003,19 @@
         <v>1483041</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1441717</v>
+        <v>1443641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1526775</v>
+        <v>1527857</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6948452929857835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6754840311988551</v>
+        <v>0.6763854423604224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7153358328814541</v>
+        <v>0.7158428917096226</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>355392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326129</v>
+        <v>324641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>389757</v>
+        <v>389969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3300421376867203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.302865890260464</v>
+        <v>0.3014841829987451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3619556777851425</v>
+        <v>0.3621522235257797</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -1053,19 +1053,19 @@
         <v>295914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267705</v>
+        <v>268928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325922</v>
+        <v>326481</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2798137527290963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2531401853000276</v>
+        <v>0.2542964646276811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3081893006279254</v>
+        <v>0.3087183166747148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>637</v>
@@ -1074,19 +1074,19 @@
         <v>651306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>607572</v>
+        <v>606490</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>692630</v>
+        <v>690706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3051547070142165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.284664167118546</v>
+        <v>0.2841571082903774</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.324515968801145</v>
+        <v>0.3236145576395776</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>742564</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>708194</v>
+        <v>707319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>769970</v>
+        <v>772158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6620614858228135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.631417242014211</v>
+        <v>0.6306370108660445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6864959624405448</v>
+        <v>0.6884466254709835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>713</v>
@@ -1199,19 +1199,19 @@
         <v>729154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>698526</v>
+        <v>698646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>754584</v>
+        <v>756059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7335995962397632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7027844673951453</v>
+        <v>0.7029059374648188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7591848963997349</v>
+        <v>0.7606687184757478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1446</v>
@@ -1220,19 +1220,19 @@
         <v>1471718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1429401</v>
+        <v>1429976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1510987</v>
+        <v>1510570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6956721794873051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6756691832560964</v>
+        <v>0.6759409446154907</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7142344743261327</v>
+        <v>0.7140371884424543</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>379030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351624</v>
+        <v>349436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413400</v>
+        <v>414275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3379385141771864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3135040375594552</v>
+        <v>0.3115533745290166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3685827579857888</v>
+        <v>0.3693629891339555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>269</v>
@@ -1270,19 +1270,19 @@
         <v>264786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>239356</v>
+        <v>237881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295414</v>
+        <v>295294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2664004037602368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2408151036002652</v>
+        <v>0.2393312815242522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2972155326048549</v>
+        <v>0.2970940625351812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -1291,19 +1291,19 @@
         <v>643816</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604547</v>
+        <v>604964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686133</v>
+        <v>685558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3043278205126949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2857655256738673</v>
+        <v>0.2859628115575457</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3243308167439037</v>
+        <v>0.3240590553845096</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>311567</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>292482</v>
+        <v>292108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>330544</v>
+        <v>331827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6991292020326363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6563047884245046</v>
+        <v>0.6554661482372651</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7417126776477746</v>
+        <v>0.7445913607068666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -1416,19 +1416,19 @@
         <v>226609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209107</v>
+        <v>208197</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>241779</v>
+        <v>243362</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6642359315792156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6129340966582525</v>
+        <v>0.6102665121494653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7087018043654074</v>
+        <v>0.7133407991247456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>527</v>
@@ -1437,19 +1437,19 @@
         <v>538176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>513474</v>
+        <v>514988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>563825</v>
+        <v>563782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6839995555231581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6526038429527414</v>
+        <v>0.6545279210076785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7165980032302126</v>
+        <v>0.7165437174846269</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>134083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115106</v>
+        <v>113823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153168</v>
+        <v>153542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3008707979673637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2582873223522255</v>
+        <v>0.2554086392931335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3436952115754958</v>
+        <v>0.3445338517627349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1487,19 +1487,19 @@
         <v>114549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99379</v>
+        <v>97796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132051</v>
+        <v>132961</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3357640684207844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2912981956345925</v>
+        <v>0.2866592008752544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3870659033417475</v>
+        <v>0.3897334878505347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>247</v>
@@ -1508,19 +1508,19 @@
         <v>248632</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>222983</v>
+        <v>223026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273334</v>
+        <v>271820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3160004444768419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2834019967697875</v>
+        <v>0.2834562825153731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3473961570472586</v>
+        <v>0.3454720789923212</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2195048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2141320</v>
+        <v>2142015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2248978</v>
+        <v>2245488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6799615526762355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6633180917388549</v>
+        <v>0.6635332085366701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6966672743974121</v>
+        <v>0.6955861936188681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2260</v>
@@ -1633,19 +1633,19 @@
         <v>2338807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2285108</v>
+        <v>2291105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2390965</v>
+        <v>2394129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7059827735106741</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.689773438806092</v>
+        <v>0.6915838052164531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7217271156300076</v>
+        <v>0.7226823145998975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4418</v>
@@ -1654,19 +1654,19 @@
         <v>4533854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4457817</v>
+        <v>4463472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4599512</v>
+        <v>4608924</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6931405246879716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6815158818543983</v>
+        <v>0.6823803458405897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7031782946838313</v>
+        <v>0.704617266380801</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1033147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>979217</v>
+        <v>982707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1086875</v>
+        <v>1086180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3200384473237645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3033327256025879</v>
+        <v>0.3044138063811318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3366819082611449</v>
+        <v>0.3364667914633298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>972</v>
@@ -1704,19 +1704,19 @@
         <v>974031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>921873</v>
+        <v>918709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1027730</v>
+        <v>1021733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.294017226489326</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2782728843699924</v>
+        <v>0.2773176854001024</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.310226561193908</v>
+        <v>0.3084161947835468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1980</v>
@@ -1725,19 +1725,19 @@
         <v>2007178</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1941520</v>
+        <v>1932108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2083215</v>
+        <v>2077560</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3068594753120284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2968217053161689</v>
+        <v>0.2953827336191989</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3184841181456018</v>
+        <v>0.3176196541594102</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>697509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>666267</v>
+        <v>665175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>728464</v>
+        <v>727382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.675632048054816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.645369767397617</v>
+        <v>0.6443126369589006</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7056162812392933</v>
+        <v>0.7045685161706732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>753</v>
@@ -2090,19 +2090,19 @@
         <v>817218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>787979</v>
+        <v>783673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>848998</v>
+        <v>847293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7330318147199125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7068050173652038</v>
+        <v>0.7029420490348371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7615376075202587</v>
+        <v>0.7600080899807294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1407</v>
@@ -2111,19 +2111,19 @@
         <v>1514727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1474303</v>
+        <v>1470841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1561375</v>
+        <v>1554938</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7054341833869544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6866079645518375</v>
+        <v>0.6849956148967549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.727158894687448</v>
+        <v>0.7241608793541661</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>334871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303916</v>
+        <v>304998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>366113</v>
+        <v>367205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.324367951945184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2943837187607068</v>
+        <v>0.2954314838293268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.354630232602383</v>
+        <v>0.3556873630410994</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -2161,19 +2161,19 @@
         <v>297629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265849</v>
+        <v>267554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>326868</v>
+        <v>331174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2669681852800875</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2384623924797415</v>
+        <v>0.2399919100192706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2931949826347962</v>
+        <v>0.297057950965163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -2182,19 +2182,19 @@
         <v>632500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585852</v>
+        <v>592289</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>672924</v>
+        <v>676386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2945658166130456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.272841105312552</v>
+        <v>0.2758391206458339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3133920354481625</v>
+        <v>0.3150043851032448</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>644786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>614858</v>
+        <v>614788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>673984</v>
+        <v>676372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6636350297270408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6328313465590573</v>
+        <v>0.6327593627258045</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6936857978468426</v>
+        <v>0.6961440922223691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>774</v>
@@ -2307,19 +2307,19 @@
         <v>832639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>801468</v>
+        <v>800410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>861449</v>
+        <v>858632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.763944694153593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7353461314544036</v>
+        <v>0.734375430484095</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7903784004211443</v>
+        <v>0.7877934027755092</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1377</v>
@@ -2328,19 +2328,19 @@
         <v>1477425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1434387</v>
+        <v>1436574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1517107</v>
+        <v>1521721</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.716668524284775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.695791793094976</v>
+        <v>0.6968523525001663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7359176350520045</v>
+        <v>0.7381556790267544</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>326812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>297614</v>
+        <v>295226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356740</v>
+        <v>356810</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3363649702729591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3063142021531572</v>
+        <v>0.303855907777631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3671686534409421</v>
+        <v>0.3672406372741956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>242</v>
@@ -2378,19 +2378,19 @@
         <v>257281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>228471</v>
+        <v>231288</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288452</v>
+        <v>289510</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2360553058464069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2096215995788557</v>
+        <v>0.2122065972244906</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2646538685455962</v>
+        <v>0.265624569515905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -2399,19 +2399,19 @@
         <v>584093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>544411</v>
+        <v>539797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>627131</v>
+        <v>624944</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.283331475715225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2640823649479955</v>
+        <v>0.2618443209732456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.304208206905024</v>
+        <v>0.3031476474998338</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>608161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>578936</v>
+        <v>579278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>636292</v>
+        <v>635373</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6895410447796518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6564060467518074</v>
+        <v>0.656792919442946</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7214361518605505</v>
+        <v>0.7203951204899457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>614</v>
@@ -2524,19 +2524,19 @@
         <v>659679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>634149</v>
+        <v>632944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>683833</v>
+        <v>682716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.757559488409096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7282419333398665</v>
+        <v>0.7268570738967699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7852971383450928</v>
+        <v>0.7840151161674629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1178</v>
@@ -2545,19 +2545,19 @@
         <v>1267839</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1229547</v>
+        <v>1225667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1306754</v>
+        <v>1305222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7233332664096517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7014867961133029</v>
+        <v>0.699272937230674</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7455353484190725</v>
+        <v>0.7446613787949006</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>273818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245687</v>
+        <v>246606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303043</v>
+        <v>302701</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3104589552203482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2785638481394494</v>
+        <v>0.2796048795100541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3435939532481926</v>
+        <v>0.3432070805570538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -2595,19 +2595,19 @@
         <v>211116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>186962</v>
+        <v>188079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>236646</v>
+        <v>237851</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2424405115909039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2147028616549072</v>
+        <v>0.2159848838325371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2717580666601334</v>
+        <v>0.2731429261032302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -2616,19 +2616,19 @@
         <v>484934</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446019</v>
+        <v>447551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>523226</v>
+        <v>527106</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2766667335903483</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2544646515809275</v>
+        <v>0.2553386212050995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2985132038866971</v>
+        <v>0.3007270627693261</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>293744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269400</v>
+        <v>271036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>315661</v>
+        <v>315951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5929349101910081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5437953392057073</v>
+        <v>0.5470970045971564</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6371757382266063</v>
+        <v>0.6377609029853401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -2741,19 +2741,19 @@
         <v>269039</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>247103</v>
+        <v>246992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288358</v>
+        <v>288975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6017649349043926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5527003230463061</v>
+        <v>0.5524519976944053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6449761616694819</v>
+        <v>0.6463559913338497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>510</v>
@@ -2762,19 +2762,19 @@
         <v>562784</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>531985</v>
+        <v>533940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>594492</v>
+        <v>594290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5971235546671851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5644462228654223</v>
+        <v>0.5665195004755706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6307669228682031</v>
+        <v>0.6305525560035625</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>201663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179746</v>
+        <v>179456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226007</v>
+        <v>224371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.407065089808992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3628242617733936</v>
+        <v>0.3622390970146598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4562046607942923</v>
+        <v>0.4529029954028435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>164</v>
@@ -2812,19 +2812,19 @@
         <v>178044</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158725</v>
+        <v>158108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199980</v>
+        <v>200091</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3982350650956073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.355023838330518</v>
+        <v>0.3536440086661503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4472996769536938</v>
+        <v>0.4475480023055946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>351</v>
@@ -2833,19 +2833,19 @@
         <v>379707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347999</v>
+        <v>348201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>410506</v>
+        <v>408551</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4028764453328149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3692330771317969</v>
+        <v>0.3694474439964371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4355537771345776</v>
+        <v>0.4334804995244292</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2244200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2192242</v>
+        <v>2184875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2307278</v>
+        <v>2294688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6636967465481874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6483305347552456</v>
+        <v>0.6461520235077017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6823513826615469</v>
+        <v>0.6786278203431371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2384</v>
@@ -2958,19 +2958,19 @@
         <v>2578575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2530096</v>
+        <v>2522395</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2633410</v>
+        <v>2633573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7319996030804791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7182374700223529</v>
+        <v>0.7160514067498809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7475660220985632</v>
+        <v>0.7476122889244969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4472</v>
@@ -2979,19 +2979,19 @@
         <v>4822775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4732102</v>
+        <v>4745933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4898699</v>
+        <v>4903206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6985470372897744</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6854136565457514</v>
+        <v>0.6874169291791344</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7095441291914429</v>
+        <v>0.7101969971404586</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1137164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1074086</v>
+        <v>1086676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1189122</v>
+        <v>1196489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3363032534518126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3176486173384532</v>
+        <v>0.3213721796568629</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3516694652447544</v>
+        <v>0.3538479764922984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>882</v>
@@ -3029,19 +3029,19 @@
         <v>944070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>889235</v>
+        <v>889072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>992549</v>
+        <v>1000250</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2680003969195209</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2524339779014377</v>
+        <v>0.2523877110755032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2817625299776471</v>
+        <v>0.2839485932501197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1960</v>
@@ -3050,19 +3050,19 @@
         <v>2081234</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2005310</v>
+        <v>2000803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2171907</v>
+        <v>2158076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3014529627102256</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2904558708085571</v>
+        <v>0.2898030028595415</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3145863434542491</v>
+        <v>0.3125830708208658</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>942781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>914495</v>
+        <v>915877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>969347</v>
+        <v>966829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.838964346653978</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8137928589163808</v>
+        <v>0.8150227608189958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8626051946129578</v>
+        <v>0.8603639373988481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>984</v>
@@ -3415,19 +3415,19 @@
         <v>1048186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1020839</v>
+        <v>1020626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1074302</v>
+        <v>1072488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.838347548404516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8164753536324195</v>
+        <v>0.8163049014414552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8592357462217346</v>
+        <v>0.8577849297122822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1879</v>
@@ -3436,19 +3436,19 @@
         <v>1990967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1947474</v>
+        <v>1952037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2024905</v>
+        <v>2025903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8386395074208156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8203191713553041</v>
+        <v>0.8222411124065004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8529348151956144</v>
+        <v>0.853355118786725</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>180963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154397</v>
+        <v>156915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>209249</v>
+        <v>207867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.161035653346022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1373948053870422</v>
+        <v>0.1396360626011519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1862071410836192</v>
+        <v>0.1849772391810041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -3486,19 +3486,19 @@
         <v>202114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175998</v>
+        <v>177812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229461</v>
+        <v>229674</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.161652451595484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1407642537782652</v>
+        <v>0.1422150702877179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1835246463675805</v>
+        <v>0.1836950985585448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -3507,19 +3507,19 @@
         <v>383077</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>349139</v>
+        <v>348141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426570</v>
+        <v>422007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1613604925791844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1470651848043856</v>
+        <v>0.146644881213275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1796808286446962</v>
+        <v>0.1777588875934996</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>725348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>701538</v>
+        <v>701497</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>748137</v>
+        <v>749191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.801177389636219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7748788975926919</v>
+        <v>0.7748334440302539</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8263498377312495</v>
+        <v>0.8275130497063421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>790</v>
@@ -3632,19 +3632,19 @@
         <v>837558</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>812101</v>
+        <v>810665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>859206</v>
+        <v>858330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.840195570168051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8146578730573999</v>
+        <v>0.8132171971314905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8619115327143712</v>
+        <v>0.8610329369176475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1491</v>
@@ -3653,19 +3653,19 @@
         <v>1562906</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1528603</v>
+        <v>1525979</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1597472</v>
+        <v>1594194</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8216249949898263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8035917202411622</v>
+        <v>0.8022123017651388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8397965274082485</v>
+        <v>0.8380731535024117</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>180004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157215</v>
+        <v>156161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203814</v>
+        <v>203855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.198822610363781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1736501622687505</v>
+        <v>0.1724869502936579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2251211024073081</v>
+        <v>0.2251665559697461</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -3703,19 +3703,19 @@
         <v>159303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>137655</v>
+        <v>138531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>184760</v>
+        <v>186196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.159804429831949</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1380884672856288</v>
+        <v>0.1389670630823526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1853421269426</v>
+        <v>0.1867828028685095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>330</v>
@@ -3724,19 +3724,19 @@
         <v>339307</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>304741</v>
+        <v>308019</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>373610</v>
+        <v>376234</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1783750050101736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1602034725917514</v>
+        <v>0.1619268464975882</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1964082797588378</v>
+        <v>0.1977876982348609</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>640931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>617043</v>
+        <v>618939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>666154</v>
+        <v>663358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7860483721809143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7567513588634187</v>
+        <v>0.7590765193877378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8169817007286363</v>
+        <v>0.8135532519888153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>578</v>
@@ -3849,19 +3849,19 @@
         <v>620002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>594270</v>
+        <v>598318</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>639066</v>
+        <v>641286</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8050954190469056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7716821886324086</v>
+        <v>0.7769391186477279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8298510734711891</v>
+        <v>0.8327346999536772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1189</v>
@@ -3870,19 +3870,19 @@
         <v>1260933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1228346</v>
+        <v>1227176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1291972</v>
+        <v>1293092</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7952998643833339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7747468182903136</v>
+        <v>0.7740085278637199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8148772284176948</v>
+        <v>0.8155834812639962</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>174453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149230</v>
+        <v>152026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198341</v>
+        <v>196445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2139516278190857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1830182992713637</v>
+        <v>0.1864467480111847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2432486411365812</v>
+        <v>0.2409234806122622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -3920,19 +3920,19 @@
         <v>150095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131031</v>
+        <v>128811</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175827</v>
+        <v>171779</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1949045809530943</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1701489265288108</v>
+        <v>0.1672653000463228</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2283178113675915</v>
+        <v>0.2230608813522722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>318</v>
@@ -3941,19 +3941,19 @@
         <v>324548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293509</v>
+        <v>292389</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>357135</v>
+        <v>358305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2047001356166661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1851227715823054</v>
+        <v>0.1844165187360039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2252531817096865</v>
+        <v>0.2259914721362804</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>337864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>315478</v>
+        <v>314911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>358327</v>
+        <v>358859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6685086814943141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6242147939689853</v>
+        <v>0.6230930925495312</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7089986252586905</v>
+        <v>0.7100503453748637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>341</v>
@@ -4066,19 +4066,19 @@
         <v>368707</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>348448</v>
+        <v>347841</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>387336</v>
+        <v>386070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7576061367864489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7159784359076525</v>
+        <v>0.7147301959519828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7958842876816105</v>
+        <v>0.7932818651100912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>653</v>
@@ -4087,19 +4087,19 @@
         <v>706571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>676752</v>
+        <v>678028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>736858</v>
+        <v>734933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7122165362375295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6821595265826519</v>
+        <v>0.683445326897821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7427461371745403</v>
+        <v>0.7408048727838644</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>167535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147072</v>
+        <v>146540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189921</v>
+        <v>190488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3314913185056859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2910013747413095</v>
+        <v>0.2899496546251362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3757852060310148</v>
+        <v>0.3769069074504686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -4137,19 +4137,19 @@
         <v>117967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99338</v>
+        <v>100604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138226</v>
+        <v>138833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2423938632135511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2041157123183895</v>
+        <v>0.2067181348899087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2840215640923475</v>
+        <v>0.2852698040480172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>269</v>
@@ -4158,19 +4158,19 @@
         <v>285502</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255215</v>
+        <v>257140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>315321</v>
+        <v>314045</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2877834637624705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2572538628254598</v>
+        <v>0.2591951272161356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3178404734173482</v>
+        <v>0.3165546731021791</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2646924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2599201</v>
+        <v>2602471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2692839</v>
+        <v>2696515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7901549740843183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7759085795825456</v>
+        <v>0.7768849083565005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.803861449168951</v>
+        <v>0.8049585916177346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2693</v>
@@ -4283,19 +4283,19 @@
         <v>2874452</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2826167</v>
+        <v>2825511</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2920081</v>
+        <v>2917562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.820350661365018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8065704255931161</v>
+        <v>0.8063830880898262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8333729973891156</v>
+        <v>0.8326540764945606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5212</v>
@@ -4304,19 +4304,19 @@
         <v>5521376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5454402</v>
+        <v>5455376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5581025</v>
+        <v>5590691</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8055921663827691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7958203393151537</v>
+        <v>0.7959623499547178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8142952054199096</v>
+        <v>0.8157053939782699</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>702956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>657041</v>
+        <v>653365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>750679</v>
+        <v>747409</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2098450259156817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.196138550831049</v>
+        <v>0.1950414083822655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2240914204174545</v>
+        <v>0.2231150916434995</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>608</v>
@@ -4354,19 +4354,19 @@
         <v>629479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>583850</v>
+        <v>586369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>677764</v>
+        <v>678420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.179649338634982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1666270026108843</v>
+        <v>0.1673459235054394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1934295744068837</v>
+        <v>0.1936169119101739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1279</v>
@@ -4375,19 +4375,19 @@
         <v>1332435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1272786</v>
+        <v>1263120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1399409</v>
+        <v>1398435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1944078336172309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1857047945800904</v>
+        <v>0.1842946060217296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2041796606848466</v>
+        <v>0.2040376500452821</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>373342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352818</v>
+        <v>346393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>396906</v>
+        <v>392698</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7547524816933524</v>
+        <v>0.7547524816933525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7132609551459503</v>
+        <v>0.7002720088523549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8023899965097747</v>
+        <v>0.793882377784198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>653</v>
@@ -4740,19 +4740,19 @@
         <v>460106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>440571</v>
+        <v>440291</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>480237</v>
+        <v>480099</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7472790397022255</v>
+        <v>0.7472790397022254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7155524884195953</v>
+        <v>0.7150967808250973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.779975480314884</v>
+        <v>0.7797512577798653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1004</v>
@@ -4761,19 +4761,19 @@
         <v>833448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>801316</v>
+        <v>802714</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>864792</v>
+        <v>863209</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7506083793019166</v>
+        <v>0.7506083793019168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7216698986933603</v>
+        <v>0.7229295080102761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7788373202547014</v>
+        <v>0.7774119770702683</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>121313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97749</v>
+        <v>101957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141837</v>
+        <v>148262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2452475183066475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1976100034902253</v>
+        <v>0.2061176222158022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2867390448540498</v>
+        <v>0.2997279911476454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -4811,19 +4811,19 @@
         <v>155602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135471</v>
+        <v>135609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175137</v>
+        <v>175417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2527209602977745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.220024519685116</v>
+        <v>0.2202487422201346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2844475115804047</v>
+        <v>0.2849032191749026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -4832,19 +4832,19 @@
         <v>276915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>245571</v>
+        <v>247154</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>309047</v>
+        <v>307649</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2493916206980833</v>
+        <v>0.2493916206980834</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2211626797452984</v>
+        <v>0.2225880229297317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2783301013066397</v>
+        <v>0.2770704919897238</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>684338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>651097</v>
+        <v>651311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>717242</v>
+        <v>713887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7189567182508763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.684034263388006</v>
+        <v>0.684258442208968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7535250443945095</v>
+        <v>0.7500007081176068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1161</v>
@@ -4957,19 +4957,19 @@
         <v>790221</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>764493</v>
+        <v>765220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>818079</v>
+        <v>816372</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.715549065849742</v>
+        <v>0.7155490658497421</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.692252626707346</v>
+        <v>0.6929108041227311</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7407747443637541</v>
+        <v>0.7392290118050983</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1827</v>
@@ -4978,19 +4978,19 @@
         <v>1474559</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1433105</v>
+        <v>1434216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1516771</v>
+        <v>1513411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7171265210675861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6969660939128504</v>
+        <v>0.6975065632728913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7376557393241252</v>
+        <v>0.7360216466732962</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>267511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234607</v>
+        <v>237962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>300752</v>
+        <v>300538</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2810432817491237</v>
+        <v>0.2810432817491238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2464749556054906</v>
+        <v>0.2499992918823927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.315965736611994</v>
+        <v>0.3157415577910316</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -5028,19 +5028,19 @@
         <v>314135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286277</v>
+        <v>287984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>339863</v>
+        <v>339136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.284450934150258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2592252556362458</v>
+        <v>0.2607709881949012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.307747373292654</v>
+        <v>0.307089195877269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>665</v>
@@ -5049,19 +5049,19 @@
         <v>581646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>539434</v>
+        <v>542794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>623100</v>
+        <v>621989</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2828734789324139</v>
+        <v>0.282873478932414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2623442606758746</v>
+        <v>0.2639783533267037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3030339060871496</v>
+        <v>0.3024934367271084</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>607669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>571581</v>
+        <v>572064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>642675</v>
+        <v>642632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.58421640744738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5495215033952933</v>
+        <v>0.5499858750034221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6178716422335304</v>
+        <v>0.6178301022935616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>909</v>
@@ -5174,19 +5174,19 @@
         <v>606996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>577372</v>
+        <v>577764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>631660</v>
+        <v>634159</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5864858580788895</v>
+        <v>0.5864858580788894</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5578627628479587</v>
+        <v>0.5582416449271499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6103160698041344</v>
+        <v>0.6127302218032451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1532</v>
@@ -5195,19 +5195,19 @@
         <v>1214665</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1163837</v>
+        <v>1168773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1257791</v>
+        <v>1260259</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5853483049569935</v>
+        <v>0.5853483049569936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5608542475301054</v>
+        <v>0.5632329611571646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6061308405604713</v>
+        <v>0.6073201915940775</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>432474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397468</v>
+        <v>397511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>468562</v>
+        <v>468079</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4157835925526199</v>
+        <v>0.41578359255262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3821283577664696</v>
+        <v>0.3821698977064385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4504784966047067</v>
+        <v>0.4500141249965779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>588</v>
@@ -5245,19 +5245,19 @@
         <v>427976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>403312</v>
+        <v>400813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457600</v>
+        <v>457208</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4135141419211105</v>
+        <v>0.4135141419211106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3896839301958656</v>
+        <v>0.3872697781967549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4421372371520412</v>
+        <v>0.4417583550728501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>988</v>
@@ -5266,19 +5266,19 @@
         <v>860450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>817324</v>
+        <v>814856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>911278</v>
+        <v>906342</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4146516950430064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3938691594395286</v>
+        <v>0.3926798084059225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4391457524698947</v>
+        <v>0.4367670388428355</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>499791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>465019</v>
+        <v>465232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>534708</v>
+        <v>535454</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.519980013802366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4838037604927723</v>
+        <v>0.4840256179766324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5563078134044699</v>
+        <v>0.5570839129805025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>747</v>
@@ -5391,19 +5391,19 @@
         <v>476778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>450954</v>
+        <v>450349</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>506249</v>
+        <v>502920</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5340391953886957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5051133403728363</v>
+        <v>0.5044361136694239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5670487652938495</v>
+        <v>0.5633208371082796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1267</v>
@@ -5412,19 +5412,19 @@
         <v>976570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>933349</v>
+        <v>934220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1018618</v>
+        <v>1022827</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5267502734522782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5034375573682115</v>
+        <v>0.5039073157539056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5494307109396185</v>
+        <v>0.5517007536682518</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>461382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426465</v>
+        <v>425719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496154</v>
+        <v>495941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4800199861976339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4436921865955303</v>
+        <v>0.4429160870194976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5161962395072278</v>
+        <v>0.5159743820233678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>553</v>
@@ -5462,19 +5462,19 @@
         <v>416000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>386529</v>
+        <v>389858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>441824</v>
+        <v>442429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4659608046113044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4329512347061505</v>
+        <v>0.4366791628917202</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4948866596271639</v>
+        <v>0.4955638863305762</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>966</v>
@@ -5483,19 +5483,19 @@
         <v>877382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>835334</v>
+        <v>831125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>920603</v>
+        <v>919732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4732497265477218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4505692890603815</v>
+        <v>0.4482992463317483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4965624426317886</v>
+        <v>0.4960926842460948</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2165140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2098772</v>
+        <v>2101802</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2227663</v>
+        <v>2233220</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6279735297777368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6087241354803385</v>
+        <v>0.609602872667244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6461076354632806</v>
+        <v>0.6477191108018678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3470</v>
@@ -5608,19 +5608,19 @@
         <v>2334101</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2286438</v>
+        <v>2283116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2389183</v>
+        <v>2388613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6398630646397583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6267967704549268</v>
+        <v>0.6258860197394873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6549629842668895</v>
+        <v>0.6548066923475558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5630</v>
@@ -5629,19 +5629,19 @@
         <v>4499242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4419483</v>
+        <v>4418179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4589663</v>
+        <v>4586283</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6340858529858875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6228453760538808</v>
+        <v>0.622661496259903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6468290055557357</v>
+        <v>0.6463527051792979</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1282681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1220158</v>
+        <v>1214601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1349049</v>
+        <v>1346019</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3720264702222633</v>
+        <v>0.3720264702222634</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3538923645367194</v>
+        <v>0.352280889198132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3912758645196615</v>
+        <v>0.3903971273327561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1766</v>
@@ -5679,19 +5679,19 @@
         <v>1313713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1258631</v>
+        <v>1259201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1361376</v>
+        <v>1364698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3601369353602417</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3450370157331106</v>
+        <v>0.3451933076524443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3732032295450732</v>
+        <v>0.3741139802605124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2914</v>
@@ -5700,19 +5700,19 @@
         <v>2596393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2505972</v>
+        <v>2509352</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2676152</v>
+        <v>2677456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3659141470141125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3531709944442643</v>
+        <v>0.3536472948207021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.377154623946119</v>
+        <v>0.3773385037400971</v>
       </c>
     </row>
     <row r="18">
